--- a/data/helencoding_irr_cielo.xlsx
+++ b/data/helencoding_irr_cielo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahlunkenheimer/Documents/GitHub/cielo/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F10658-C2AA-8E47-B74E-C55A53D2D1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31A0D09-E4D5-7B40-A131-0B93AF2700BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0D32ABC3-5FEB-3F42-BE52-A30671CBED61}"/>
+    <workbookView xWindow="16780" yWindow="500" windowWidth="12020" windowHeight="16440" xr2:uid="{0D32ABC3-5FEB-3F42-BE52-A30671CBED61}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -371,25 +371,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -710,13 +709,12 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4"/>
-    <col min="2" max="2" width="14.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="8" max="9" width="15.1640625" customWidth="1"/>
@@ -750,10 +748,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>65</v>
       </c>
       <c r="C1" t="s">
@@ -1326,10 +1324,10 @@
       </c>
     </row>
     <row r="5" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>121</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>1</v>
       </c>
       <c r="C5">
@@ -1742,10 +1740,10 @@
       </c>
     </row>
     <row r="6" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>123</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>1</v>
       </c>
       <c r="C6">
@@ -2158,10 +2156,10 @@
       </c>
     </row>
     <row r="7" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>126</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>1</v>
       </c>
       <c r="C7">
@@ -2577,10 +2575,10 @@
       </c>
     </row>
     <row r="8" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>127</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>1</v>
       </c>
       <c r="C8">
@@ -2996,10 +2994,10 @@
       </c>
     </row>
     <row r="9" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>128</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>1</v>
       </c>
       <c r="C9">
@@ -3415,10 +3413,10 @@
       </c>
     </row>
     <row r="10" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>130</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>1</v>
       </c>
       <c r="C10">
@@ -3834,10 +3832,10 @@
       </c>
     </row>
     <row r="11" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>132</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>1</v>
       </c>
       <c r="C11">
@@ -4253,10 +4251,10 @@
       </c>
     </row>
     <row r="12" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>133</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>1</v>
       </c>
       <c r="C12">
@@ -4672,10 +4670,10 @@
       </c>
     </row>
     <row r="13" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>135</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>0</v>
       </c>
       <c r="C13">
@@ -5091,10 +5089,10 @@
       </c>
     </row>
     <row r="14" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>1</v>
       </c>
       <c r="C14">
@@ -5510,10 +5508,10 @@
       </c>
     </row>
     <row r="15" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>1</v>
       </c>
       <c r="C15">
@@ -5929,10 +5927,10 @@
       </c>
     </row>
     <row r="16" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>1</v>
       </c>
       <c r="C16">
@@ -6348,10 +6346,10 @@
       </c>
     </row>
     <row r="17" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>1</v>
       </c>
       <c r="C17">
@@ -6767,10 +6765,10 @@
       </c>
     </row>
     <row r="18" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>138</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>1</v>
       </c>
       <c r="C18">
@@ -7186,10 +7184,10 @@
       </c>
     </row>
     <row r="19" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>140</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>1</v>
       </c>
       <c r="C19">
@@ -7605,10 +7603,10 @@
       </c>
     </row>
     <row r="20" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>141</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>1</v>
       </c>
       <c r="C20">
@@ -8024,10 +8022,10 @@
       </c>
     </row>
     <row r="21" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>1</v>
       </c>
       <c r="C21">
@@ -8443,10 +8441,10 @@
       </c>
     </row>
     <row r="22" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>1</v>
       </c>
       <c r="C22">
@@ -8862,10 +8860,10 @@
       </c>
     </row>
     <row r="23" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>144</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>1</v>
       </c>
       <c r="C23">
@@ -9281,10 +9279,10 @@
       </c>
     </row>
     <row r="24" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>145</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>1</v>
       </c>
       <c r="C24">
@@ -9700,10 +9698,10 @@
       </c>
     </row>
     <row r="25" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>147</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>1</v>
       </c>
       <c r="C25">
@@ -10119,10 +10117,10 @@
       </c>
     </row>
     <row r="26" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>146</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>1</v>
       </c>
       <c r="C26">
@@ -10538,10 +10536,10 @@
       </c>
     </row>
     <row r="27" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>148</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>1</v>
       </c>
       <c r="C27">
@@ -10957,10 +10955,10 @@
       </c>
     </row>
     <row r="28" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>149</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <v>1</v>
       </c>
       <c r="C28">
@@ -11376,10 +11374,10 @@
       </c>
     </row>
     <row r="29" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>151</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <v>1</v>
       </c>
       <c r="C29">
@@ -11795,10 +11793,10 @@
       </c>
     </row>
     <row r="30" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>154</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <v>1</v>
       </c>
       <c r="C30">
@@ -12214,10 +12212,10 @@
       </c>
     </row>
     <row r="31" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <v>156</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="5">
         <v>1</v>
       </c>
       <c r="C31">
@@ -12633,10 +12631,10 @@
       </c>
     </row>
     <row r="32" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
+      <c r="A32" s="4">
         <v>159</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="5">
         <v>1</v>
       </c>
       <c r="C32">
@@ -13052,10 +13050,10 @@
       </c>
     </row>
     <row r="33" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
+      <c r="A33" s="4">
         <v>161</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="5">
         <v>1</v>
       </c>
       <c r="C33">
@@ -13471,10 +13469,10 @@
       </c>
     </row>
     <row r="34" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
+      <c r="A34" s="4">
         <v>160</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="5">
         <v>1</v>
       </c>
       <c r="C34">
@@ -13890,10 +13888,10 @@
       </c>
     </row>
     <row r="35" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
+      <c r="A35" s="4">
         <v>162</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <v>1</v>
       </c>
       <c r="C35">
@@ -14309,10 +14307,10 @@
       </c>
     </row>
     <row r="36" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
+      <c r="A36" s="4">
         <v>164</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="5">
         <v>1</v>
       </c>
       <c r="C36">
@@ -14728,10 +14726,10 @@
       </c>
     </row>
     <row r="37" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
+      <c r="A37" s="4">
         <v>165</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="5">
         <v>1</v>
       </c>
       <c r="C37">
@@ -15147,10 +15145,10 @@
       </c>
     </row>
     <row r="38" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
+      <c r="A38" s="4">
         <v>169</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <v>1</v>
       </c>
       <c r="C38">
@@ -15566,10 +15564,10 @@
       </c>
     </row>
     <row r="39" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
+      <c r="A39" s="4">
         <v>170</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="5">
         <v>1</v>
       </c>
       <c r="C39">
@@ -15985,10 +15983,10 @@
       </c>
     </row>
     <row r="40" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
+      <c r="A40" s="4">
         <v>171</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="5">
         <v>1</v>
       </c>
       <c r="C40">
@@ -16404,10 +16402,10 @@
       </c>
     </row>
     <row r="41" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
+      <c r="A41" s="4">
         <v>172</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="5">
         <v>1</v>
       </c>
       <c r="C41">
@@ -16823,10 +16821,10 @@
       </c>
     </row>
     <row r="42" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
+      <c r="A42" s="4">
         <v>173</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="5">
         <v>1</v>
       </c>
       <c r="C42">
@@ -17242,10 +17240,10 @@
       </c>
     </row>
     <row r="43" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A43" s="5">
+      <c r="A43" s="4">
         <v>174</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="5">
         <v>1</v>
       </c>
       <c r="C43">
@@ -17661,10 +17659,10 @@
       </c>
     </row>
     <row r="44" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A44" s="5">
+      <c r="A44" s="4">
         <v>151</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="5">
         <v>1</v>
       </c>
       <c r="C44">
@@ -18080,10 +18078,10 @@
       </c>
     </row>
     <row r="45" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A45" s="5">
+      <c r="A45" s="4">
         <v>175</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="5">
         <v>1</v>
       </c>
       <c r="C45">
@@ -18499,10 +18497,10 @@
       </c>
     </row>
     <row r="46" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A46" s="5">
+      <c r="A46" s="4">
         <v>177</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="5">
         <v>1</v>
       </c>
       <c r="C46">
@@ -18918,10 +18916,10 @@
       </c>
     </row>
     <row r="47" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A47" s="5">
+      <c r="A47" s="4">
         <v>176</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="5">
         <v>1</v>
       </c>
       <c r="C47">
@@ -19337,10 +19335,10 @@
       </c>
     </row>
     <row r="48" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A48" s="5">
+      <c r="A48" s="4">
         <v>178</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="5">
         <v>1</v>
       </c>
       <c r="C48">
@@ -19756,10 +19754,10 @@
       </c>
     </row>
     <row r="49" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A49" s="5">
+      <c r="A49" s="4">
         <v>189</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="5">
         <v>1</v>
       </c>
       <c r="C49">
@@ -20175,10 +20173,10 @@
       </c>
     </row>
     <row r="50" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A50" s="5">
+      <c r="A50" s="4">
         <v>180</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="5">
         <v>1</v>
       </c>
       <c r="C50">
@@ -20594,10 +20592,10 @@
       </c>
     </row>
     <row r="51" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A51" s="5">
+      <c r="A51" s="4">
         <v>181</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="5">
         <v>1</v>
       </c>
       <c r="C51">
@@ -21013,10 +21011,10 @@
       </c>
     </row>
     <row r="52" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A52" s="5">
+      <c r="A52" s="4">
         <v>182</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="5">
         <v>1</v>
       </c>
       <c r="C52">
@@ -21432,10 +21430,10 @@
       </c>
     </row>
     <row r="53" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A53" s="5">
+      <c r="A53" s="4">
         <v>186</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="5">
         <v>1</v>
       </c>
       <c r="C53">
@@ -21851,10 +21849,10 @@
       </c>
     </row>
     <row r="54" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A54" s="5">
+      <c r="A54" s="4">
         <v>190</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="5">
         <v>1</v>
       </c>
       <c r="C54">
@@ -22270,10 +22268,10 @@
       </c>
     </row>
     <row r="55" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A55" s="5">
+      <c r="A55" s="4">
         <v>187</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="5">
         <v>1</v>
       </c>
       <c r="C55">
@@ -22689,10 +22687,10 @@
       </c>
     </row>
     <row r="56" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A56" s="5">
+      <c r="A56" s="4">
         <v>193</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56" s="5">
         <v>1</v>
       </c>
       <c r="C56">
@@ -23108,10 +23106,10 @@
       </c>
     </row>
     <row r="57" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A57" s="5">
+      <c r="A57" s="4">
         <v>194</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57" s="5">
         <v>1</v>
       </c>
       <c r="C57">
@@ -23527,10 +23525,10 @@
       </c>
     </row>
     <row r="58" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A58" s="5">
+      <c r="A58" s="4">
         <v>197</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58" s="5">
         <v>1</v>
       </c>
       <c r="C58">
@@ -23946,10 +23944,10 @@
       </c>
     </row>
     <row r="59" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A59" s="5">
+      <c r="A59" s="4">
         <v>199</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="5">
         <v>1</v>
       </c>
       <c r="C59">
@@ -24365,10 +24363,10 @@
       </c>
     </row>
     <row r="60" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A60" s="5">
+      <c r="A60" s="4">
         <v>199</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B60" s="5">
         <v>1</v>
       </c>
       <c r="C60">
@@ -24784,10 +24782,10 @@
       </c>
     </row>
     <row r="61" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A61" s="5">
+      <c r="A61" s="4">
         <v>200</v>
       </c>
-      <c r="B61" s="6">
+      <c r="B61" s="5">
         <v>1</v>
       </c>
       <c r="C61">
@@ -25197,10 +25195,10 @@
       </c>
     </row>
     <row r="62" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A62" s="5">
+      <c r="A62" s="4">
         <v>201</v>
       </c>
-      <c r="B62" s="6">
+      <c r="B62" s="5">
         <v>1</v>
       </c>
       <c r="C62">
@@ -25616,10 +25614,10 @@
       </c>
     </row>
     <row r="63" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A63" s="5">
+      <c r="A63" s="4">
         <v>202</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63" s="5">
         <v>1</v>
       </c>
       <c r="C63">
@@ -26035,10 +26033,10 @@
       </c>
     </row>
     <row r="64" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A64" s="5">
+      <c r="A64" s="4">
         <v>204</v>
       </c>
-      <c r="B64" s="6">
+      <c r="B64" s="5">
         <v>1</v>
       </c>
       <c r="C64">
@@ -26454,10 +26452,10 @@
       </c>
     </row>
     <row r="65" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A65" s="5">
+      <c r="A65" s="4">
         <v>205</v>
       </c>
-      <c r="B65" s="6">
+      <c r="B65" s="5">
         <v>1</v>
       </c>
       <c r="C65">
@@ -26873,10 +26871,10 @@
       </c>
     </row>
     <row r="66" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A66" s="5">
+      <c r="A66" s="4">
         <v>208</v>
       </c>
-      <c r="B66" s="6">
+      <c r="B66" s="5">
         <v>1</v>
       </c>
       <c r="C66">
@@ -27292,10 +27290,10 @@
       </c>
     </row>
     <row r="67" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="8">
+      <c r="A67" s="7">
         <v>209</v>
       </c>
-      <c r="B67" s="6">
+      <c r="B67" s="5">
         <v>1</v>
       </c>
       <c r="C67" s="1">
@@ -27711,10 +27709,10 @@
       </c>
     </row>
     <row r="68" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A68" s="5">
+      <c r="A68" s="4">
         <v>210</v>
       </c>
-      <c r="B68" s="6">
+      <c r="B68" s="5">
         <v>1</v>
       </c>
       <c r="C68">
@@ -28130,10 +28128,10 @@
       </c>
     </row>
     <row r="69" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A69" s="5">
+      <c r="A69" s="4">
         <v>211</v>
       </c>
-      <c r="B69" s="6">
+      <c r="B69" s="5">
         <v>1</v>
       </c>
       <c r="C69">
@@ -28549,10 +28547,10 @@
       </c>
     </row>
     <row r="70" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A70" s="5">
+      <c r="A70" s="4">
         <v>212</v>
       </c>
-      <c r="B70" s="6">
+      <c r="B70" s="5">
         <v>1</v>
       </c>
       <c r="C70">
@@ -28968,10 +28966,10 @@
       </c>
     </row>
     <row r="71" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A71" s="5">
+      <c r="A71" s="4">
         <v>213</v>
       </c>
-      <c r="B71" s="6">
+      <c r="B71" s="5">
         <v>1</v>
       </c>
       <c r="C71">
@@ -29387,10 +29385,10 @@
       </c>
     </row>
     <row r="72" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A72" s="5">
+      <c r="A72" s="4">
         <v>215</v>
       </c>
-      <c r="B72" s="6">
+      <c r="B72" s="5">
         <v>1</v>
       </c>
       <c r="C72">
@@ -29806,10 +29804,10 @@
       </c>
     </row>
     <row r="73" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A73" s="5">
+      <c r="A73" s="4">
         <v>216</v>
       </c>
-      <c r="B73" s="6">
+      <c r="B73" s="5">
         <v>1</v>
       </c>
       <c r="C73">
@@ -30225,10 +30223,10 @@
       </c>
     </row>
     <row r="74" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A74" s="5">
+      <c r="A74" s="4">
         <v>218</v>
       </c>
-      <c r="B74" s="6">
+      <c r="B74" s="5">
         <v>1</v>
       </c>
       <c r="C74">
@@ -30644,10 +30642,10 @@
       </c>
     </row>
     <row r="75" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A75" s="5">
+      <c r="A75" s="4">
         <v>220</v>
       </c>
-      <c r="B75" s="6">
+      <c r="B75" s="5">
         <v>1</v>
       </c>
       <c r="C75">
@@ -31060,10 +31058,10 @@
       </c>
     </row>
     <row r="76" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A76" s="5">
+      <c r="A76" s="4">
         <v>221</v>
       </c>
-      <c r="B76" s="6">
+      <c r="B76" s="5">
         <v>1</v>
       </c>
       <c r="C76">
@@ -31479,10 +31477,10 @@
       </c>
     </row>
     <row r="77" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A77" s="5">
+      <c r="A77" s="4">
         <v>222</v>
       </c>
-      <c r="B77" s="6">
+      <c r="B77" s="5">
         <v>1</v>
       </c>
       <c r="C77">
@@ -31898,10 +31896,10 @@
       </c>
     </row>
     <row r="78" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A78" s="5">
+      <c r="A78" s="4">
         <v>223</v>
       </c>
-      <c r="B78" s="6">
+      <c r="B78" s="5">
         <v>1</v>
       </c>
       <c r="C78">
@@ -32317,10 +32315,10 @@
       </c>
     </row>
     <row r="79" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A79" s="5">
+      <c r="A79" s="4">
         <v>224</v>
       </c>
-      <c r="B79" s="6">
+      <c r="B79" s="5">
         <v>1</v>
       </c>
       <c r="C79">
@@ -32736,10 +32734,10 @@
       </c>
     </row>
     <row r="80" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A80" s="5">
+      <c r="A80" s="4">
         <v>225</v>
       </c>
-      <c r="B80" s="6">
+      <c r="B80" s="5">
         <v>1</v>
       </c>
       <c r="C80">
@@ -33155,10 +33153,10 @@
       </c>
     </row>
     <row r="81" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A81" s="5">
+      <c r="A81" s="4">
         <v>226</v>
       </c>
-      <c r="B81" s="6">
+      <c r="B81" s="5">
         <v>1</v>
       </c>
       <c r="C81">
@@ -33574,10 +33572,10 @@
       </c>
     </row>
     <row r="82" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A82" s="5">
+      <c r="A82" s="4">
         <v>227</v>
       </c>
-      <c r="B82" s="6">
+      <c r="B82" s="5">
         <v>1</v>
       </c>
       <c r="C82">
@@ -33993,10 +33991,10 @@
       </c>
     </row>
     <row r="83" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A83" s="5">
+      <c r="A83" s="4">
         <v>228</v>
       </c>
-      <c r="B83" s="6">
+      <c r="B83" s="5">
         <v>1</v>
       </c>
       <c r="C83">
@@ -34412,10 +34410,10 @@
       </c>
     </row>
     <row r="84" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A84" s="5">
+      <c r="A84" s="4">
         <v>229</v>
       </c>
-      <c r="B84" s="6">
+      <c r="B84" s="5">
         <v>1</v>
       </c>
       <c r="C84">
@@ -34831,10 +34829,10 @@
       </c>
     </row>
     <row r="85" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A85" s="5">
+      <c r="A85" s="4">
         <v>232</v>
       </c>
-      <c r="B85" s="6">
+      <c r="B85" s="5">
         <v>1</v>
       </c>
       <c r="C85">
@@ -35250,10 +35248,10 @@
       </c>
     </row>
     <row r="86" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A86" s="5">
+      <c r="A86" s="4">
         <v>233</v>
       </c>
-      <c r="B86" s="6">
+      <c r="B86" s="5">
         <v>1</v>
       </c>
       <c r="C86">
@@ -35669,10 +35667,10 @@
       </c>
     </row>
     <row r="87" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A87" s="5">
+      <c r="A87" s="4">
         <v>235</v>
       </c>
-      <c r="B87" s="6">
+      <c r="B87" s="5">
         <v>1</v>
       </c>
       <c r="C87">
@@ -36088,10 +36086,10 @@
       </c>
     </row>
     <row r="88" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A88" s="5">
+      <c r="A88" s="4">
         <v>236</v>
       </c>
-      <c r="B88" s="6">
+      <c r="B88" s="5">
         <v>1</v>
       </c>
       <c r="C88">
@@ -36507,10 +36505,10 @@
       </c>
     </row>
     <row r="89" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A89" s="5">
+      <c r="A89" s="4">
         <v>179</v>
       </c>
-      <c r="B89" s="6">
+      <c r="B89" s="5">
         <v>1</v>
       </c>
       <c r="C89">
@@ -36926,10 +36924,10 @@
       </c>
     </row>
     <row r="90" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A90" s="5">
+      <c r="A90" s="4">
         <v>238</v>
       </c>
-      <c r="B90" s="6">
+      <c r="B90" s="5">
         <v>1</v>
       </c>
       <c r="C90">
@@ -37345,10 +37343,10 @@
       </c>
     </row>
     <row r="91" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A91" s="5">
+      <c r="A91" s="4">
         <v>241</v>
       </c>
-      <c r="B91" s="6">
+      <c r="B91" s="5">
         <v>1</v>
       </c>
       <c r="C91">
@@ -37764,10 +37762,10 @@
       </c>
     </row>
     <row r="92" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A92" s="5">
+      <c r="A92" s="4">
         <v>242</v>
       </c>
-      <c r="B92" s="6">
+      <c r="B92" s="5">
         <v>1</v>
       </c>
       <c r="C92">
@@ -38183,10 +38181,10 @@
       </c>
     </row>
     <row r="93" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A93" s="5">
+      <c r="A93" s="4">
         <v>245</v>
       </c>
-      <c r="B93" s="6">
+      <c r="B93" s="5">
         <v>1</v>
       </c>
       <c r="C93">
@@ -38602,10 +38600,10 @@
       </c>
     </row>
     <row r="94" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A94" s="5">
+      <c r="A94" s="4">
         <v>246</v>
       </c>
-      <c r="B94" s="6">
+      <c r="B94" s="5">
         <v>1</v>
       </c>
       <c r="C94">
@@ -39021,10 +39019,10 @@
       </c>
     </row>
     <row r="95" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A95" s="5">
+      <c r="A95" s="4">
         <v>247</v>
       </c>
-      <c r="B95" s="6">
+      <c r="B95" s="5">
         <v>1</v>
       </c>
       <c r="C95">
@@ -39440,10 +39438,10 @@
       </c>
     </row>
     <row r="96" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A96" s="5">
+      <c r="A96" s="4">
         <v>248</v>
       </c>
-      <c r="B96" s="6">
+      <c r="B96" s="5">
         <v>1</v>
       </c>
       <c r="C96">
@@ -39859,10 +39857,10 @@
       </c>
     </row>
     <row r="97" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A97" s="5">
+      <c r="A97" s="4">
         <v>249</v>
       </c>
-      <c r="B97" s="6">
+      <c r="B97" s="5">
         <v>1</v>
       </c>
       <c r="C97">
@@ -40278,10 +40276,10 @@
       </c>
     </row>
     <row r="98" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A98" s="5">
+      <c r="A98" s="4">
         <v>250</v>
       </c>
-      <c r="B98" s="6">
+      <c r="B98" s="5">
         <v>1</v>
       </c>
       <c r="C98">
@@ -40697,10 +40695,10 @@
       </c>
     </row>
     <row r="99" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A99" s="5">
+      <c r="A99" s="4">
         <v>251</v>
       </c>
-      <c r="B99" s="7">
+      <c r="B99" s="6">
         <v>0</v>
       </c>
       <c r="C99">
@@ -41116,180 +41114,180 @@
       </c>
     </row>
     <row r="100" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A100" s="5"/>
-      <c r="B100" s="9"/>
+      <c r="A100" s="4"/>
+      <c r="B100" s="8"/>
     </row>
     <row r="101" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A101" s="5"/>
-      <c r="B101" s="9"/>
+      <c r="A101" s="4"/>
+      <c r="B101" s="8"/>
     </row>
     <row r="102" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A102" s="5"/>
-      <c r="B102" s="9"/>
+      <c r="A102" s="4"/>
+      <c r="B102" s="8"/>
     </row>
     <row r="103" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A103" s="5"/>
-      <c r="B103" s="9"/>
+      <c r="A103" s="4"/>
+      <c r="B103" s="8"/>
     </row>
     <row r="104" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A104" s="5"/>
-      <c r="B104" s="9"/>
+      <c r="A104" s="4"/>
+      <c r="B104" s="8"/>
     </row>
     <row r="105" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A105" s="5"/>
-      <c r="B105" s="9"/>
+      <c r="A105" s="4"/>
+      <c r="B105" s="8"/>
     </row>
     <row r="106" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A106" s="5"/>
-      <c r="B106" s="9"/>
+      <c r="A106" s="4"/>
+      <c r="B106" s="8"/>
     </row>
     <row r="107" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A107" s="5"/>
-      <c r="B107" s="9"/>
+      <c r="A107" s="4"/>
+      <c r="B107" s="8"/>
     </row>
     <row r="108" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A108" s="5"/>
-      <c r="B108" s="9"/>
+      <c r="A108" s="4"/>
+      <c r="B108" s="8"/>
     </row>
     <row r="109" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A109" s="5"/>
-      <c r="B109" s="9"/>
+      <c r="A109" s="4"/>
+      <c r="B109" s="8"/>
     </row>
     <row r="110" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A110" s="5"/>
-      <c r="B110" s="9"/>
+      <c r="A110" s="4"/>
+      <c r="B110" s="8"/>
     </row>
     <row r="111" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A111" s="5"/>
-      <c r="B111" s="9"/>
+      <c r="A111" s="4"/>
+      <c r="B111" s="8"/>
     </row>
     <row r="112" spans="1:139" x14ac:dyDescent="0.2">
-      <c r="A112" s="5"/>
-      <c r="B112" s="9"/>
+      <c r="A112" s="4"/>
+      <c r="B112" s="8"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="5"/>
-      <c r="B113" s="9"/>
+      <c r="A113" s="4"/>
+      <c r="B113" s="8"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="5"/>
-      <c r="B114" s="9"/>
+      <c r="A114" s="4"/>
+      <c r="B114" s="8"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="5"/>
-      <c r="B115" s="9"/>
+      <c r="A115" s="4"/>
+      <c r="B115" s="8"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="5"/>
-      <c r="B116" s="9"/>
+      <c r="A116" s="4"/>
+      <c r="B116" s="8"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="5"/>
-      <c r="B117" s="9"/>
+      <c r="A117" s="4"/>
+      <c r="B117" s="8"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="5"/>
-      <c r="B118" s="9"/>
+      <c r="A118" s="4"/>
+      <c r="B118" s="8"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="5"/>
-      <c r="B119" s="9"/>
+      <c r="A119" s="4"/>
+      <c r="B119" s="8"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="5"/>
-      <c r="B120" s="9"/>
+      <c r="A120" s="4"/>
+      <c r="B120" s="8"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="5"/>
-      <c r="B121" s="9"/>
+      <c r="A121" s="4"/>
+      <c r="B121" s="8"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="10"/>
-      <c r="B122" s="9"/>
+      <c r="A122" s="9"/>
+      <c r="B122" s="8"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="5"/>
-      <c r="B123" s="9"/>
+      <c r="A123" s="4"/>
+      <c r="B123" s="8"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="5"/>
-      <c r="B124" s="9"/>
+      <c r="A124" s="4"/>
+      <c r="B124" s="8"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="5"/>
-      <c r="B125" s="9"/>
+      <c r="A125" s="4"/>
+      <c r="B125" s="8"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="5"/>
-      <c r="B126" s="9"/>
+      <c r="A126" s="4"/>
+      <c r="B126" s="8"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="5"/>
-      <c r="B127" s="9"/>
+      <c r="A127" s="4"/>
+      <c r="B127" s="8"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="5"/>
-      <c r="B128" s="9"/>
+      <c r="A128" s="4"/>
+      <c r="B128" s="8"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="5"/>
-      <c r="B129" s="9"/>
+      <c r="A129" s="4"/>
+      <c r="B129" s="8"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="5"/>
-      <c r="B130" s="9"/>
+      <c r="A130" s="4"/>
+      <c r="B130" s="8"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="5"/>
-      <c r="B131" s="9"/>
+      <c r="A131" s="4"/>
+      <c r="B131" s="8"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="5"/>
-      <c r="B132" s="9"/>
+      <c r="A132" s="4"/>
+      <c r="B132" s="8"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="5"/>
-      <c r="B133" s="9"/>
+      <c r="A133" s="4"/>
+      <c r="B133" s="8"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="5"/>
-      <c r="B134" s="9"/>
+      <c r="A134" s="4"/>
+      <c r="B134" s="8"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="5"/>
-      <c r="B135" s="9"/>
+      <c r="A135" s="4"/>
+      <c r="B135" s="8"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="5"/>
-      <c r="B136" s="9"/>
+      <c r="A136" s="4"/>
+      <c r="B136" s="8"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="5"/>
-      <c r="B137" s="9"/>
+      <c r="A137" s="4"/>
+      <c r="B137" s="8"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="11"/>
+      <c r="A138" s="10"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="5"/>
+      <c r="A139" s="4"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="5"/>
+      <c r="A140" s="4"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="5"/>
+      <c r="A141" s="4"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="5"/>
+      <c r="A142" s="4"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="5"/>
+      <c r="A143" s="4"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="5"/>
+      <c r="A144" s="4"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" s="5"/>
+      <c r="A145" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
